--- a/data/pca/factorExposure/factorExposure_2015-10-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01404854601786551</v>
+        <v>-0.01625564575145516</v>
       </c>
       <c r="C2">
-        <v>0.0275072808235262</v>
+        <v>0.03445237217363857</v>
       </c>
       <c r="D2">
-        <v>0.1051030011505307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1271065681365444</v>
+      </c>
+      <c r="E2">
+        <v>0.05580582229910077</v>
+      </c>
+      <c r="F2">
+        <v>0.03019167003888971</v>
+      </c>
+      <c r="G2">
+        <v>0.04186730658886673</v>
+      </c>
+      <c r="H2">
+        <v>-0.1093708319336573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01742437304741835</v>
+        <v>-0.01252354930451877</v>
       </c>
       <c r="C3">
-        <v>0.05006562121819087</v>
+        <v>0.04042844753573641</v>
       </c>
       <c r="D3">
-        <v>0.08545024966204734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05505214923885618</v>
+      </c>
+      <c r="E3">
+        <v>0.04020472877886092</v>
+      </c>
+      <c r="F3">
+        <v>0.07155919782097762</v>
+      </c>
+      <c r="G3">
+        <v>0.1180318516328163</v>
+      </c>
+      <c r="H3">
+        <v>-0.07875921290320986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04547993738413891</v>
+        <v>-0.04870891091355508</v>
       </c>
       <c r="C4">
-        <v>0.06031520407985792</v>
+        <v>0.07230304956800973</v>
       </c>
       <c r="D4">
-        <v>0.1264243846928171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1464285817319485</v>
+      </c>
+      <c r="E4">
+        <v>0.05140443054491754</v>
+      </c>
+      <c r="F4">
+        <v>0.04354791667868647</v>
+      </c>
+      <c r="G4">
+        <v>-0.04130365574577621</v>
+      </c>
+      <c r="H4">
+        <v>0.004919381431357204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03523835438712081</v>
+        <v>-0.03849595385295764</v>
       </c>
       <c r="C6">
-        <v>0.02307303727009117</v>
+        <v>0.02764604781834346</v>
       </c>
       <c r="D6">
-        <v>0.152567558674383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1400276761348705</v>
+      </c>
+      <c r="E6">
+        <v>0.01642338070696434</v>
+      </c>
+      <c r="F6">
+        <v>0.02983596009876899</v>
+      </c>
+      <c r="G6">
+        <v>-0.02247258307611629</v>
+      </c>
+      <c r="H6">
+        <v>-0.05623686152429803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01591909131997721</v>
+        <v>-0.01294085948241091</v>
       </c>
       <c r="C7">
-        <v>0.02638631567007917</v>
+        <v>0.03348421935702212</v>
       </c>
       <c r="D7">
-        <v>0.1039986101001666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09610544566022433</v>
+      </c>
+      <c r="E7">
+        <v>0.01402876236316078</v>
+      </c>
+      <c r="F7">
+        <v>0.02930898143760284</v>
+      </c>
+      <c r="G7">
+        <v>-0.000184323318902735</v>
+      </c>
+      <c r="H7">
+        <v>-0.08170592789882855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00831052730606362</v>
+        <v>-0.008089218129285093</v>
       </c>
       <c r="C8">
-        <v>0.03147032692543594</v>
+        <v>0.03603626897895371</v>
       </c>
       <c r="D8">
-        <v>0.06270998816100437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0763439318674228</v>
+      </c>
+      <c r="E8">
+        <v>0.02962368521793378</v>
+      </c>
+      <c r="F8">
+        <v>0.06821060431612029</v>
+      </c>
+      <c r="G8">
+        <v>0.0258792670057879</v>
+      </c>
+      <c r="H8">
+        <v>-0.06180331361783471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03842638112711131</v>
+        <v>-0.03956832634048575</v>
       </c>
       <c r="C9">
-        <v>0.0532018608775216</v>
+        <v>0.06539305815202547</v>
       </c>
       <c r="D9">
-        <v>0.1117453009720737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1219407761198115</v>
+      </c>
+      <c r="E9">
+        <v>0.03899717482436577</v>
+      </c>
+      <c r="F9">
+        <v>0.02502889882354874</v>
+      </c>
+      <c r="G9">
+        <v>-0.02461842840692448</v>
+      </c>
+      <c r="H9">
+        <v>-0.002524781806309541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1170120152146338</v>
+        <v>-0.148592214203964</v>
       </c>
       <c r="C10">
-        <v>-0.1836937824628353</v>
+        <v>-0.1879232215210056</v>
       </c>
       <c r="D10">
-        <v>0.005422258525480241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0103643946721341</v>
+      </c>
+      <c r="E10">
+        <v>0.04011319316288484</v>
+      </c>
+      <c r="F10">
+        <v>0.05200801989591783</v>
+      </c>
+      <c r="G10">
+        <v>0.001821349405552304</v>
+      </c>
+      <c r="H10">
+        <v>0.03455841912852829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02953332093695448</v>
+        <v>-0.02838559176068751</v>
       </c>
       <c r="C11">
-        <v>0.04146653895726456</v>
+        <v>0.04568736460836308</v>
       </c>
       <c r="D11">
-        <v>0.0599057915853579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05962653377790215</v>
+      </c>
+      <c r="E11">
+        <v>-0.008915889018746277</v>
+      </c>
+      <c r="F11">
+        <v>-0.005303121039872153</v>
+      </c>
+      <c r="G11">
+        <v>-0.004650487335381271</v>
+      </c>
+      <c r="H11">
+        <v>-0.03305463314571006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03570289160289029</v>
+        <v>-0.03264543046962742</v>
       </c>
       <c r="C12">
-        <v>0.04343355771229358</v>
+        <v>0.04815293039257305</v>
       </c>
       <c r="D12">
-        <v>0.06066917589339981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05600364382805545</v>
+      </c>
+      <c r="E12">
+        <v>0.0004213424264915628</v>
+      </c>
+      <c r="F12">
+        <v>-0.008788705274829309</v>
+      </c>
+      <c r="G12">
+        <v>0.003341435082173111</v>
+      </c>
+      <c r="H12">
+        <v>-0.03448390004282743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01095442555253678</v>
+        <v>-0.01590898007475922</v>
       </c>
       <c r="C13">
-        <v>0.03390214776519465</v>
+        <v>0.03938325802359736</v>
       </c>
       <c r="D13">
-        <v>0.140963856708319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1560363580256267</v>
+      </c>
+      <c r="E13">
+        <v>0.0287250002014643</v>
+      </c>
+      <c r="F13">
+        <v>0.06166389289011181</v>
+      </c>
+      <c r="G13">
+        <v>0.01552307865641822</v>
+      </c>
+      <c r="H13">
+        <v>-0.07821051262506769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00275925067087455</v>
+        <v>-0.006440379561804703</v>
       </c>
       <c r="C14">
-        <v>0.02177337953259679</v>
+        <v>0.02327351140138069</v>
       </c>
       <c r="D14">
-        <v>0.0904917706247217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09389211072345301</v>
+      </c>
+      <c r="E14">
+        <v>0.03118729631497595</v>
+      </c>
+      <c r="F14">
+        <v>0.01639244869148818</v>
+      </c>
+      <c r="G14">
+        <v>-0.002707939181804241</v>
+      </c>
+      <c r="H14">
+        <v>-0.1002038298890751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002839992427099617</v>
+        <v>-0.001018440051544689</v>
       </c>
       <c r="C15">
-        <v>0.003750633438597063</v>
+        <v>0.01214106651967354</v>
       </c>
       <c r="D15">
-        <v>0.004481433296579872</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03573660700900548</v>
+      </c>
+      <c r="E15">
+        <v>0.009893744565798706</v>
+      </c>
+      <c r="F15">
+        <v>0.001918246172333238</v>
+      </c>
+      <c r="G15">
+        <v>0.0005328736144031387</v>
+      </c>
+      <c r="H15">
+        <v>-0.02349659433982442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02957930714674364</v>
+        <v>-0.02816043396111806</v>
       </c>
       <c r="C16">
-        <v>0.0441479458257855</v>
+        <v>0.04713297904012121</v>
       </c>
       <c r="D16">
-        <v>0.06487548191272534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06173294350411302</v>
+      </c>
+      <c r="E16">
+        <v>0.007282715290883067</v>
+      </c>
+      <c r="F16">
+        <v>2.592239558840812e-05</v>
+      </c>
+      <c r="G16">
+        <v>-0.003616992843100112</v>
+      </c>
+      <c r="H16">
+        <v>-0.04748576137412017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009147852776100611</v>
+        <v>-0.007229532758160605</v>
       </c>
       <c r="C19">
-        <v>0.03192188554626935</v>
+        <v>0.02677753178795264</v>
       </c>
       <c r="D19">
-        <v>0.1508148982520689</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1141937811722594</v>
+      </c>
+      <c r="E19">
+        <v>0.05453211695455112</v>
+      </c>
+      <c r="F19">
+        <v>0.003674995897564839</v>
+      </c>
+      <c r="G19">
+        <v>0.02248477967066423</v>
+      </c>
+      <c r="H19">
+        <v>-0.05265742340772617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01181324370509444</v>
+        <v>-0.01424571705821561</v>
       </c>
       <c r="C20">
-        <v>0.03108618289608403</v>
+        <v>0.03536553068866106</v>
       </c>
       <c r="D20">
-        <v>0.09089186356377474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1033630717404809</v>
+      </c>
+      <c r="E20">
+        <v>0.04771129684398716</v>
+      </c>
+      <c r="F20">
+        <v>0.01573635215231008</v>
+      </c>
+      <c r="G20">
+        <v>-0.00854341250397535</v>
+      </c>
+      <c r="H20">
+        <v>-0.05478434988778121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004803911346685888</v>
+        <v>-0.007942140207086369</v>
       </c>
       <c r="C21">
-        <v>0.03147434105378373</v>
+        <v>0.03834145287351307</v>
       </c>
       <c r="D21">
-        <v>0.1373171148810564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.140731013395332</v>
+      </c>
+      <c r="E21">
+        <v>0.07951753512267928</v>
+      </c>
+      <c r="F21">
+        <v>0.04637383260673007</v>
+      </c>
+      <c r="G21">
+        <v>-0.006305454987221344</v>
+      </c>
+      <c r="H21">
+        <v>-0.08184670678891995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002617833320015502</v>
+        <v>-0.007481733930276535</v>
       </c>
       <c r="C22">
-        <v>0.04574647759249851</v>
+        <v>0.04163787284555576</v>
       </c>
       <c r="D22">
-        <v>0.1083391063608845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1616467687520008</v>
+      </c>
+      <c r="E22">
+        <v>0.01908945310393271</v>
+      </c>
+      <c r="F22">
+        <v>0.09324465112260985</v>
+      </c>
+      <c r="G22">
+        <v>0.06035185510504473</v>
+      </c>
+      <c r="H22">
+        <v>-0.04843207853828355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002469855857288264</v>
+        <v>-0.007612560267480846</v>
       </c>
       <c r="C23">
-        <v>0.04604863446538338</v>
+        <v>0.0421204811443577</v>
       </c>
       <c r="D23">
-        <v>0.1078808779067536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1609725824125614</v>
+      </c>
+      <c r="E23">
+        <v>0.01953750700604969</v>
+      </c>
+      <c r="F23">
+        <v>0.09336840848672205</v>
+      </c>
+      <c r="G23">
+        <v>0.05963196194717767</v>
+      </c>
+      <c r="H23">
+        <v>-0.04783374760141865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03265857725019005</v>
+        <v>-0.03003144558720145</v>
       </c>
       <c r="C24">
-        <v>0.05406485705766158</v>
+        <v>0.05857741079726698</v>
       </c>
       <c r="D24">
-        <v>0.06562843183304747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06498287355082913</v>
+      </c>
+      <c r="E24">
+        <v>0.008952460213644344</v>
+      </c>
+      <c r="F24">
+        <v>-0.001080384279872301</v>
+      </c>
+      <c r="G24">
+        <v>-0.01468299054428758</v>
+      </c>
+      <c r="H24">
+        <v>-0.05262682315931436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03744020096523228</v>
+        <v>-0.03386415837545768</v>
       </c>
       <c r="C25">
-        <v>0.05189332789206223</v>
+        <v>0.05568254155048072</v>
       </c>
       <c r="D25">
-        <v>0.06471458121040327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06191698914929759</v>
+      </c>
+      <c r="E25">
+        <v>0.009643865240455381</v>
+      </c>
+      <c r="F25">
+        <v>0.001473651736280794</v>
+      </c>
+      <c r="G25">
+        <v>5.739071831982933e-05</v>
+      </c>
+      <c r="H25">
+        <v>-0.02637436358678286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01364731853873722</v>
+        <v>-0.01621293978501961</v>
       </c>
       <c r="C26">
-        <v>0.01090037578035712</v>
+        <v>0.01757923887741455</v>
       </c>
       <c r="D26">
-        <v>0.0557866995006027</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06354863093141425</v>
+      </c>
+      <c r="E26">
+        <v>0.02037196261128819</v>
+      </c>
+      <c r="F26">
+        <v>0.0185392916108188</v>
+      </c>
+      <c r="G26">
+        <v>-0.004069145737998882</v>
+      </c>
+      <c r="H26">
+        <v>-0.05678407321822252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1712302451733063</v>
+        <v>-0.2120578900306491</v>
       </c>
       <c r="C28">
-        <v>-0.261046609773253</v>
+        <v>-0.252755426547816</v>
       </c>
       <c r="D28">
-        <v>-0.007768484106224252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003715720851059095</v>
+      </c>
+      <c r="E28">
+        <v>0.07491816858094637</v>
+      </c>
+      <c r="F28">
+        <v>0.03847842080357517</v>
+      </c>
+      <c r="G28">
+        <v>-0.02322588035955293</v>
+      </c>
+      <c r="H28">
+        <v>0.04517116072385422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0001627262381192129</v>
+        <v>-0.0040080454491657</v>
       </c>
       <c r="C29">
-        <v>0.02159179795457526</v>
+        <v>0.02139965250828</v>
       </c>
       <c r="D29">
-        <v>0.07998628362626196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0916156862477369</v>
+      </c>
+      <c r="E29">
+        <v>0.0218332168472906</v>
+      </c>
+      <c r="F29">
+        <v>0.03533794131395915</v>
+      </c>
+      <c r="G29">
+        <v>-0.012235625824477</v>
+      </c>
+      <c r="H29">
+        <v>-0.09584406696377733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02801246967804426</v>
+        <v>-0.03646366844633585</v>
       </c>
       <c r="C30">
-        <v>0.04852558445243201</v>
+        <v>0.06248469684224517</v>
       </c>
       <c r="D30">
-        <v>0.1587855507740529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1731150031623692</v>
+      </c>
+      <c r="E30">
+        <v>0.02225274804286538</v>
+      </c>
+      <c r="F30">
+        <v>0.02742993482572072</v>
+      </c>
+      <c r="G30">
+        <v>-0.02872165623619592</v>
+      </c>
+      <c r="H30">
+        <v>-0.06841789743563766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05892637606213704</v>
+        <v>-0.05173292780818904</v>
       </c>
       <c r="C31">
-        <v>0.06466063851573903</v>
+        <v>0.07601152607347333</v>
       </c>
       <c r="D31">
-        <v>0.0731674611269001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05602913731242337</v>
+      </c>
+      <c r="E31">
+        <v>0.01869327127623205</v>
+      </c>
+      <c r="F31">
+        <v>0.04325427358178085</v>
+      </c>
+      <c r="G31">
+        <v>0.006395010585751831</v>
+      </c>
+      <c r="H31">
+        <v>-0.01501695886143712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009672318502964914</v>
+        <v>-0.01596236848291669</v>
       </c>
       <c r="C32">
-        <v>0.01095234905944065</v>
+        <v>0.01460838028331119</v>
       </c>
       <c r="D32">
-        <v>0.07496604759250615</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.113345236772782</v>
+      </c>
+      <c r="E32">
+        <v>0.0737251508365018</v>
+      </c>
+      <c r="F32">
+        <v>0.05283755856755606</v>
+      </c>
+      <c r="G32">
+        <v>-0.009153468238218724</v>
+      </c>
+      <c r="H32">
+        <v>-0.06486034207379097</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02215919109339309</v>
+        <v>-0.02439005733525143</v>
       </c>
       <c r="C33">
-        <v>0.0377254032989906</v>
+        <v>0.04486483090664006</v>
       </c>
       <c r="D33">
-        <v>0.1393039437758678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1345938015324658</v>
+      </c>
+      <c r="E33">
+        <v>0.03731538026170426</v>
+      </c>
+      <c r="F33">
+        <v>0.02536166671452649</v>
+      </c>
+      <c r="G33">
+        <v>-0.00116662031760275</v>
+      </c>
+      <c r="H33">
+        <v>-0.06271103361882893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03011039016414901</v>
+        <v>-0.02545488791296899</v>
       </c>
       <c r="C34">
-        <v>0.06517851384495267</v>
+        <v>0.06358954184499531</v>
       </c>
       <c r="D34">
-        <v>0.06716616240228943</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05506922602995992</v>
+      </c>
+      <c r="E34">
+        <v>-0.008542261100199481</v>
+      </c>
+      <c r="F34">
+        <v>-0.01152023026905527</v>
+      </c>
+      <c r="G34">
+        <v>0.002868891678907334</v>
+      </c>
+      <c r="H34">
+        <v>-0.04599099798173432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0009210680813179871</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009098588703123285</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.007733029428138523</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002888635363446679</v>
+      </c>
+      <c r="F35">
+        <v>0.0007670735893902554</v>
+      </c>
+      <c r="G35">
+        <v>-9.075865385323467e-05</v>
+      </c>
+      <c r="H35">
+        <v>-0.004200425995543283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01693502273467009</v>
+        <v>-0.01886169963873707</v>
       </c>
       <c r="C36">
-        <v>0.007243353524278592</v>
+        <v>0.01513550068027583</v>
       </c>
       <c r="D36">
-        <v>0.07959358105176409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07824279429363037</v>
+      </c>
+      <c r="E36">
+        <v>0.02865895507547971</v>
+      </c>
+      <c r="F36">
+        <v>0.01676253009782434</v>
+      </c>
+      <c r="G36">
+        <v>-0.01442071415624245</v>
+      </c>
+      <c r="H36">
+        <v>-0.04757813793462532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01800707421669911</v>
+        <v>-0.02076390456691377</v>
       </c>
       <c r="C38">
-        <v>0.01769126354267431</v>
+        <v>0.01997802668736472</v>
       </c>
       <c r="D38">
-        <v>0.06339869382298358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06678810479768912</v>
+      </c>
+      <c r="E38">
+        <v>0.03339078653447179</v>
+      </c>
+      <c r="F38">
+        <v>-0.01124083643015313</v>
+      </c>
+      <c r="G38">
+        <v>0.0219621242913593</v>
+      </c>
+      <c r="H38">
+        <v>-0.04827509025539514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03471300702538358</v>
+        <v>-0.03337863849049103</v>
       </c>
       <c r="C39">
-        <v>0.05651659834841871</v>
+        <v>0.06965399458985799</v>
       </c>
       <c r="D39">
-        <v>0.08689392321441256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.102460014820665</v>
+      </c>
+      <c r="E39">
+        <v>0.01181072427566362</v>
+      </c>
+      <c r="F39">
+        <v>-0.0206458543028649</v>
+      </c>
+      <c r="G39">
+        <v>-0.028107406540846</v>
+      </c>
+      <c r="H39">
+        <v>-0.09104422109819786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01258979005613304</v>
+        <v>-0.01237668416702706</v>
       </c>
       <c r="C40">
-        <v>0.04115781374543068</v>
+        <v>0.03728617566290212</v>
       </c>
       <c r="D40">
-        <v>0.08195212525247975</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08815875375269057</v>
+      </c>
+      <c r="E40">
+        <v>0.03985273064310337</v>
+      </c>
+      <c r="F40">
+        <v>0.1012752499865462</v>
+      </c>
+      <c r="G40">
+        <v>0.09752653715894967</v>
+      </c>
+      <c r="H40">
+        <v>-0.165036968940927</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02362539057110956</v>
+        <v>-0.02321971213110259</v>
       </c>
       <c r="C41">
-        <v>0.00322475609848813</v>
+        <v>0.009637935056335763</v>
       </c>
       <c r="D41">
-        <v>0.06869523157418204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05269369119428791</v>
+      </c>
+      <c r="E41">
+        <v>0.04751993053746215</v>
+      </c>
+      <c r="F41">
+        <v>0.01834354298632271</v>
+      </c>
+      <c r="G41">
+        <v>0.01909049676171271</v>
+      </c>
+      <c r="H41">
+        <v>-0.04341218962011082</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02517804461050176</v>
+        <v>-0.02283420175347324</v>
       </c>
       <c r="C43">
-        <v>0.01458243253404131</v>
+        <v>0.01904541367984324</v>
       </c>
       <c r="D43">
-        <v>0.111301656856487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08424521863901518</v>
+      </c>
+      <c r="E43">
+        <v>0.02250181471950988</v>
+      </c>
+      <c r="F43">
+        <v>0.01260463056711358</v>
+      </c>
+      <c r="G43">
+        <v>0.02047669563988196</v>
+      </c>
+      <c r="H43">
+        <v>-0.05045373465328008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009460206679241478</v>
+        <v>-0.01373538611272758</v>
       </c>
       <c r="C44">
-        <v>0.04186644260008354</v>
+        <v>0.04122060537926481</v>
       </c>
       <c r="D44">
-        <v>0.08259803019127468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1030940892293135</v>
+      </c>
+      <c r="E44">
+        <v>0.04815045467175397</v>
+      </c>
+      <c r="F44">
+        <v>0.02544387037864787</v>
+      </c>
+      <c r="G44">
+        <v>0.005901765027759655</v>
+      </c>
+      <c r="H44">
+        <v>-0.0654895361568405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01158791123651373</v>
+        <v>-0.01160993559492733</v>
       </c>
       <c r="C46">
-        <v>0.02546944242033708</v>
+        <v>0.03005434692109567</v>
       </c>
       <c r="D46">
-        <v>0.0875840987073071</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08793890309430431</v>
+      </c>
+      <c r="E46">
+        <v>0.03322058574394739</v>
+      </c>
+      <c r="F46">
+        <v>0.01495422921686764</v>
+      </c>
+      <c r="G46">
+        <v>-0.01576814483188262</v>
+      </c>
+      <c r="H46">
+        <v>-0.09034585504534468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09114671921719204</v>
+        <v>-0.07991134383537719</v>
       </c>
       <c r="C47">
-        <v>0.07427511883540136</v>
+        <v>0.091336883089172</v>
       </c>
       <c r="D47">
-        <v>0.04958934065287159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03586269054344187</v>
+      </c>
+      <c r="E47">
+        <v>0.03256686895804326</v>
+      </c>
+      <c r="F47">
+        <v>0.03241875564598926</v>
+      </c>
+      <c r="G47">
+        <v>0.02319501636487135</v>
+      </c>
+      <c r="H47">
+        <v>0.04489487974102497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009883808713669439</v>
+        <v>-0.01362566614016006</v>
       </c>
       <c r="C48">
-        <v>0.01718839095833916</v>
+        <v>0.02104599486229066</v>
       </c>
       <c r="D48">
-        <v>0.06717644774281925</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07268955017088764</v>
+      </c>
+      <c r="E48">
+        <v>0.05418671364708706</v>
+      </c>
+      <c r="F48">
+        <v>0.02307064602733217</v>
+      </c>
+      <c r="G48">
+        <v>-0.01003897148324949</v>
+      </c>
+      <c r="H48">
+        <v>-0.05592870683901384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05622158885289009</v>
+        <v>-0.0488690945446445</v>
       </c>
       <c r="C50">
-        <v>0.05618450064265743</v>
+        <v>0.06790339141894107</v>
       </c>
       <c r="D50">
-        <v>0.06404634446300475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05370637765753693</v>
+      </c>
+      <c r="E50">
+        <v>0.02247813481910346</v>
+      </c>
+      <c r="F50">
+        <v>0.04632091033849028</v>
+      </c>
+      <c r="G50">
+        <v>0.03804874696603264</v>
+      </c>
+      <c r="H50">
+        <v>-0.02367835652717898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009590656642206787</v>
+        <v>-0.01034569068800798</v>
       </c>
       <c r="C51">
-        <v>0.01487130639525786</v>
+        <v>0.02129064976152354</v>
       </c>
       <c r="D51">
-        <v>0.07809561513192063</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08869751397994288</v>
+      </c>
+      <c r="E51">
+        <v>0.009285552144865268</v>
+      </c>
+      <c r="F51">
+        <v>0.006823075033550029</v>
+      </c>
+      <c r="G51">
+        <v>-0.01717018021153718</v>
+      </c>
+      <c r="H51">
+        <v>-0.08585130072428485</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0892065794503496</v>
+        <v>-0.08691898169243603</v>
       </c>
       <c r="C53">
-        <v>0.09232372283673508</v>
+        <v>0.1012566377178357</v>
       </c>
       <c r="D53">
-        <v>0.008232797721528478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01747306800648203</v>
+      </c>
+      <c r="E53">
+        <v>0.1024329043189059</v>
+      </c>
+      <c r="F53">
+        <v>0.09152810882041194</v>
+      </c>
+      <c r="G53">
+        <v>-0.04071343103773694</v>
+      </c>
+      <c r="H53">
+        <v>0.02893450167149034</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02380944494563733</v>
+        <v>-0.02483849547479715</v>
       </c>
       <c r="C54">
-        <v>0.02918584283144943</v>
+        <v>0.0344147073588037</v>
       </c>
       <c r="D54">
-        <v>0.09583050597418785</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08706013153113175</v>
+      </c>
+      <c r="E54">
+        <v>0.036970617184802</v>
+      </c>
+      <c r="F54">
+        <v>0.007004201104014683</v>
+      </c>
+      <c r="G54">
+        <v>0.02318137106515077</v>
+      </c>
+      <c r="H54">
+        <v>-0.08796702632683959</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09036226596087024</v>
+        <v>-0.08433538115772371</v>
       </c>
       <c r="C55">
-        <v>0.06965309227724426</v>
+        <v>0.0806701410101868</v>
       </c>
       <c r="D55">
-        <v>-0.008024284136855289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.004171108614008873</v>
+      </c>
+      <c r="E55">
+        <v>0.04973582469906857</v>
+      </c>
+      <c r="F55">
+        <v>0.06244214793950452</v>
+      </c>
+      <c r="G55">
+        <v>-0.01811876755016748</v>
+      </c>
+      <c r="H55">
+        <v>0.01575597958103805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1379824634853765</v>
+        <v>-0.127728721591191</v>
       </c>
       <c r="C56">
-        <v>0.102311706058469</v>
+        <v>0.1282131383781264</v>
       </c>
       <c r="D56">
-        <v>-0.00501094138103437</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.007712740071962119</v>
+      </c>
+      <c r="E56">
+        <v>0.05023527581988258</v>
+      </c>
+      <c r="F56">
+        <v>0.05855700353134075</v>
+      </c>
+      <c r="G56">
+        <v>0.01066467910760048</v>
+      </c>
+      <c r="H56">
+        <v>0.04841113995502786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.004043369618520331</v>
+        <v>-0.01165871456186908</v>
       </c>
       <c r="C58">
-        <v>0.009628848037433507</v>
+        <v>0.03272020954837241</v>
       </c>
       <c r="D58">
-        <v>0.2671625852112441</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3125188584029499</v>
+      </c>
+      <c r="E58">
+        <v>0.08864333456989251</v>
+      </c>
+      <c r="F58">
+        <v>0.1003463708312551</v>
+      </c>
+      <c r="G58">
+        <v>0.05867761042944102</v>
+      </c>
+      <c r="H58">
+        <v>0.01011669037087915</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.150743228822902</v>
+        <v>-0.1830741673315617</v>
       </c>
       <c r="C59">
-        <v>-0.177623697500128</v>
+        <v>-0.1661294853004966</v>
       </c>
       <c r="D59">
-        <v>0.03955892735060756</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05681478415617223</v>
+      </c>
+      <c r="E59">
+        <v>0.04185834007421043</v>
+      </c>
+      <c r="F59">
+        <v>-0.03078426045055645</v>
+      </c>
+      <c r="G59">
+        <v>0.003344334012487413</v>
+      </c>
+      <c r="H59">
+        <v>0.02142952894645611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.240405176483878</v>
+        <v>-0.2271527762963343</v>
       </c>
       <c r="C60">
-        <v>0.08082502651108664</v>
+        <v>0.1066280796515451</v>
       </c>
       <c r="D60">
-        <v>0.20152412156954</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1357309152251376</v>
+      </c>
+      <c r="E60">
+        <v>-0.3218515267337433</v>
+      </c>
+      <c r="F60">
+        <v>-0.08636210894898053</v>
+      </c>
+      <c r="G60">
+        <v>-0.02930105341580502</v>
+      </c>
+      <c r="H60">
+        <v>0.1535960260881427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04214920953195093</v>
+        <v>-0.03918586284654157</v>
       </c>
       <c r="C61">
-        <v>0.05363270405492683</v>
+        <v>0.06290098067397465</v>
       </c>
       <c r="D61">
-        <v>0.1021968453894212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09343308917726439</v>
+      </c>
+      <c r="E61">
+        <v>0.003363726406919604</v>
+      </c>
+      <c r="F61">
+        <v>-0.01416183286817144</v>
+      </c>
+      <c r="G61">
+        <v>-0.0110165788659835</v>
+      </c>
+      <c r="H61">
+        <v>-0.05218940913477751</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01541912321678255</v>
+        <v>-0.01629800999569377</v>
       </c>
       <c r="C63">
-        <v>0.02160478069967567</v>
+        <v>0.03055541464390998</v>
       </c>
       <c r="D63">
-        <v>0.0776795320547578</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0754878197956832</v>
+      </c>
+      <c r="E63">
+        <v>0.01344046457853373</v>
+      </c>
+      <c r="F63">
+        <v>0.01380330530101164</v>
+      </c>
+      <c r="G63">
+        <v>-0.01578291889979595</v>
+      </c>
+      <c r="H63">
+        <v>-0.04939347169760311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05756521016431673</v>
+        <v>-0.05021053291503799</v>
       </c>
       <c r="C64">
-        <v>0.07411598818909522</v>
+        <v>0.08162751999098657</v>
       </c>
       <c r="D64">
-        <v>0.05584869164463387</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05568310281031588</v>
+      </c>
+      <c r="E64">
+        <v>0.0179162765585532</v>
+      </c>
+      <c r="F64">
+        <v>0.004147925107710551</v>
+      </c>
+      <c r="G64">
+        <v>-0.06782351305999393</v>
+      </c>
+      <c r="H64">
+        <v>-0.03082873224557125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03966298947676643</v>
+        <v>-0.04094306784865425</v>
       </c>
       <c r="C65">
-        <v>0.02040256714704528</v>
+        <v>0.02724052926042711</v>
       </c>
       <c r="D65">
-        <v>0.1255275607098768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1176182897853477</v>
+      </c>
+      <c r="E65">
+        <v>-0.008960036419457067</v>
+      </c>
+      <c r="F65">
+        <v>0.01453685883353775</v>
+      </c>
+      <c r="G65">
+        <v>-0.001054429841483795</v>
+      </c>
+      <c r="H65">
+        <v>-0.02084206830665231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03817698010582804</v>
+        <v>-0.03680302549965675</v>
       </c>
       <c r="C66">
-        <v>0.06350215175396486</v>
+        <v>0.07860518240207064</v>
       </c>
       <c r="D66">
-        <v>0.1075266567643146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1289183397403652</v>
+      </c>
+      <c r="E66">
+        <v>0.01266791478674846</v>
+      </c>
+      <c r="F66">
+        <v>-0.00916067781919667</v>
+      </c>
+      <c r="G66">
+        <v>-0.004612252585608469</v>
+      </c>
+      <c r="H66">
+        <v>-0.06214954236435496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03897449658382461</v>
+        <v>-0.03828194886682043</v>
       </c>
       <c r="C67">
-        <v>0.02285629597786929</v>
+        <v>0.02662059302867431</v>
       </c>
       <c r="D67">
-        <v>0.03396431534641117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0276231299125481</v>
+      </c>
+      <c r="E67">
+        <v>0.01043567415067131</v>
+      </c>
+      <c r="F67">
+        <v>-0.01859332183574582</v>
+      </c>
+      <c r="G67">
+        <v>0.01724913550475137</v>
+      </c>
+      <c r="H67">
+        <v>-0.04313392520947684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1727272531051862</v>
+        <v>-0.2028401458675169</v>
       </c>
       <c r="C68">
-        <v>-0.2207590560627574</v>
+        <v>-0.197285495111016</v>
       </c>
       <c r="D68">
-        <v>0.01683971246103729</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02475788456747631</v>
+      </c>
+      <c r="E68">
+        <v>0.02906529152804331</v>
+      </c>
+      <c r="F68">
+        <v>0.03092522811181233</v>
+      </c>
+      <c r="G68">
+        <v>-9.42612664193186e-05</v>
+      </c>
+      <c r="H68">
+        <v>-0.01176128195271202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08171956904740738</v>
+        <v>-0.07089308861876983</v>
       </c>
       <c r="C69">
-        <v>0.08939156612106428</v>
+        <v>0.09936715314167294</v>
       </c>
       <c r="D69">
-        <v>0.07176654326773466</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.05132651101433267</v>
+      </c>
+      <c r="E69">
+        <v>0.02164015243629556</v>
+      </c>
+      <c r="F69">
+        <v>0.01374230615319419</v>
+      </c>
+      <c r="G69">
+        <v>0.01023565589311034</v>
+      </c>
+      <c r="H69">
+        <v>0.01874327507789481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1558905172842006</v>
+        <v>-0.1876100640109285</v>
       </c>
       <c r="C71">
-        <v>-0.2214831470820576</v>
+        <v>-0.2041543925864497</v>
       </c>
       <c r="D71">
-        <v>0.02913465921086336</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03793925083635535</v>
+      </c>
+      <c r="E71">
+        <v>0.04591753630072439</v>
+      </c>
+      <c r="F71">
+        <v>0.06836249292667995</v>
+      </c>
+      <c r="G71">
+        <v>0.02899010205487788</v>
+      </c>
+      <c r="H71">
+        <v>0.002666821642578625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1052517333233158</v>
+        <v>-0.09947075230701231</v>
       </c>
       <c r="C72">
-        <v>0.05493487554668273</v>
+        <v>0.07718857383163956</v>
       </c>
       <c r="D72">
-        <v>0.09141255363453617</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09516084430894674</v>
+      </c>
+      <c r="E72">
+        <v>-0.04836817898068047</v>
+      </c>
+      <c r="F72">
+        <v>0.02882458221750797</v>
+      </c>
+      <c r="G72">
+        <v>-0.04038401694602274</v>
+      </c>
+      <c r="H72">
+        <v>-0.03335155408479456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2539979869738054</v>
+        <v>-0.2341031493245871</v>
       </c>
       <c r="C73">
-        <v>0.0482093801051376</v>
+        <v>0.09858451673192954</v>
       </c>
       <c r="D73">
-        <v>0.3069207036755719</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1755979721652763</v>
+      </c>
+      <c r="E73">
+        <v>-0.62556670837364</v>
+      </c>
+      <c r="F73">
+        <v>-0.1973016320171716</v>
+      </c>
+      <c r="G73">
+        <v>-0.05499646279240084</v>
+      </c>
+      <c r="H73">
+        <v>0.1946787148642907</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1049072480580004</v>
+        <v>-0.09451320077861822</v>
       </c>
       <c r="C74">
-        <v>0.07406868795295524</v>
+        <v>0.09225908168254188</v>
       </c>
       <c r="D74">
-        <v>-0.006406472331672981</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01247880102725706</v>
+      </c>
+      <c r="E74">
+        <v>0.04116559151586733</v>
+      </c>
+      <c r="F74">
+        <v>0.07504507374473862</v>
+      </c>
+      <c r="G74">
+        <v>-0.03671135440745682</v>
+      </c>
+      <c r="H74">
+        <v>0.0557067594670734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2474119062311438</v>
+        <v>-0.2227492304876043</v>
       </c>
       <c r="C75">
-        <v>0.1338235277454787</v>
+        <v>0.1679367632235808</v>
       </c>
       <c r="D75">
-        <v>-0.07567034080361522</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09715968709588911</v>
+      </c>
+      <c r="E75">
+        <v>0.1006962540548133</v>
+      </c>
+      <c r="F75">
+        <v>0.03064613672490006</v>
+      </c>
+      <c r="G75">
+        <v>0.003736048669371448</v>
+      </c>
+      <c r="H75">
+        <v>0.0941081301453859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.136579036093379</v>
+        <v>-0.123487805528794</v>
       </c>
       <c r="C76">
-        <v>0.09816501307609897</v>
+        <v>0.1139254028793646</v>
       </c>
       <c r="D76">
-        <v>-0.003403424344084281</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.008159427686014187</v>
+      </c>
+      <c r="E76">
+        <v>0.09974778509428063</v>
+      </c>
+      <c r="F76">
+        <v>0.04841743539373426</v>
+      </c>
+      <c r="G76">
+        <v>-0.02498004523974308</v>
+      </c>
+      <c r="H76">
+        <v>-0.0003962007805129118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04998588647599457</v>
+        <v>-0.05631059029628967</v>
       </c>
       <c r="C77">
-        <v>0.06717445637531511</v>
+        <v>0.07521381548402317</v>
       </c>
       <c r="D77">
-        <v>0.04389794095841846</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1296744380259494</v>
+      </c>
+      <c r="E77">
+        <v>0.364688128641844</v>
+      </c>
+      <c r="F77">
+        <v>-0.2869690235711683</v>
+      </c>
+      <c r="G77">
+        <v>0.5321385791664622</v>
+      </c>
+      <c r="H77">
+        <v>0.5759523119147821</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03979614378525374</v>
+        <v>-0.04325315811638648</v>
       </c>
       <c r="C78">
-        <v>0.06087909552420078</v>
+        <v>0.06864765958713713</v>
       </c>
       <c r="D78">
-        <v>0.1288055886907784</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1356884962911294</v>
+      </c>
+      <c r="E78">
+        <v>0.01465368730028947</v>
+      </c>
+      <c r="F78">
+        <v>0.03442669748566676</v>
+      </c>
+      <c r="G78">
+        <v>0.006309038803377447</v>
+      </c>
+      <c r="H78">
+        <v>-0.00895372248317342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04078504579967191</v>
+        <v>-0.04851043524567938</v>
       </c>
       <c r="C79">
-        <v>0.08159259512274859</v>
+        <v>0.09847839868796569</v>
       </c>
       <c r="D79">
-        <v>-0.09316720584945186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02550665853513835</v>
+      </c>
+      <c r="E79">
+        <v>0.2122631552105858</v>
+      </c>
+      <c r="F79">
+        <v>0.3428828696148685</v>
+      </c>
+      <c r="G79">
+        <v>-0.629665778203506</v>
+      </c>
+      <c r="H79">
+        <v>0.4370090547949693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02580231707587816</v>
+        <v>-0.02474636473046252</v>
       </c>
       <c r="C80">
-        <v>0.04485708262108745</v>
+        <v>0.04608767587181877</v>
       </c>
       <c r="D80">
-        <v>0.01817251337099316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01840535667275175</v>
+      </c>
+      <c r="E80">
+        <v>0.01792599934496002</v>
+      </c>
+      <c r="F80">
+        <v>0.007923364472058001</v>
+      </c>
+      <c r="G80">
+        <v>-0.0079417123628875</v>
+      </c>
+      <c r="H80">
+        <v>-0.06726463466176941</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1371347658610749</v>
+        <v>-0.1197627167112405</v>
       </c>
       <c r="C81">
-        <v>0.104151465498105</v>
+        <v>0.1224765316790753</v>
       </c>
       <c r="D81">
-        <v>-0.07040453733010514</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07590164447933678</v>
+      </c>
+      <c r="E81">
+        <v>0.09818704908827104</v>
+      </c>
+      <c r="F81">
+        <v>0.06768276739542951</v>
+      </c>
+      <c r="G81">
+        <v>-0.002561595562021848</v>
+      </c>
+      <c r="H81">
+        <v>0.02460242236718429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3110100869960044</v>
+        <v>-0.2601748602409847</v>
       </c>
       <c r="C82">
-        <v>0.2708534456625857</v>
+        <v>0.2718273797572022</v>
       </c>
       <c r="D82">
-        <v>-0.2381331221922753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2394559045908108</v>
+      </c>
+      <c r="E82">
+        <v>-0.01944266329636279</v>
+      </c>
+      <c r="F82">
+        <v>0.01594234102219298</v>
+      </c>
+      <c r="G82">
+        <v>0.1793103420624384</v>
+      </c>
+      <c r="H82">
+        <v>-0.02491675974942546</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02605546094048894</v>
+        <v>-0.02053933069000805</v>
       </c>
       <c r="C83">
-        <v>0.05334369637111262</v>
+        <v>0.05081647684604682</v>
       </c>
       <c r="D83">
-        <v>0.04642715420844388</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05119612765209558</v>
+      </c>
+      <c r="E83">
+        <v>0.03376526852828419</v>
+      </c>
+      <c r="F83">
+        <v>-0.05845008258951984</v>
+      </c>
+      <c r="G83">
+        <v>0.06382227937061434</v>
+      </c>
+      <c r="H83">
+        <v>0.04823426253939714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0009610597440788046</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004896583527406598</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0186936530322694</v>
+      </c>
+      <c r="E84">
+        <v>0.0171024785212507</v>
+      </c>
+      <c r="F84">
+        <v>0.01629783280202525</v>
+      </c>
+      <c r="G84">
+        <v>-0.001760959614079604</v>
+      </c>
+      <c r="H84">
+        <v>-0.02261548228319908</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1716899048125801</v>
+        <v>-0.1534185417731993</v>
       </c>
       <c r="C85">
-        <v>0.1131140055509148</v>
+        <v>0.1388647376394951</v>
       </c>
       <c r="D85">
-        <v>-0.03367854197958382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05985219498874335</v>
+      </c>
+      <c r="E85">
+        <v>0.03269284983485831</v>
+      </c>
+      <c r="F85">
+        <v>0.06078402583410852</v>
+      </c>
+      <c r="G85">
+        <v>-0.0881750661570708</v>
+      </c>
+      <c r="H85">
+        <v>0.03658387814196534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01637739444332716</v>
+        <v>-0.01737968984906679</v>
       </c>
       <c r="C86">
-        <v>0.03633811006341953</v>
+        <v>0.03493715736583564</v>
       </c>
       <c r="D86">
-        <v>0.1185092449856764</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1165254332235923</v>
+      </c>
+      <c r="E86">
+        <v>0.02983123999939577</v>
+      </c>
+      <c r="F86">
+        <v>-0.004872403088126011</v>
+      </c>
+      <c r="G86">
+        <v>0.07602583525764207</v>
+      </c>
+      <c r="H86">
+        <v>0.008025592742307257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02033560514403585</v>
+        <v>-0.03171497332529723</v>
       </c>
       <c r="C87">
-        <v>0.01775329830205626</v>
+        <v>0.02580157062530359</v>
       </c>
       <c r="D87">
-        <v>0.09892479941432701</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1308011334701122</v>
+      </c>
+      <c r="E87">
+        <v>0.0559096809824192</v>
+      </c>
+      <c r="F87">
+        <v>0.01719807328426189</v>
+      </c>
+      <c r="G87">
+        <v>0.001832242745155901</v>
+      </c>
+      <c r="H87">
+        <v>-0.06079278780983292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07424496521860002</v>
+        <v>-0.06600346317190366</v>
       </c>
       <c r="C88">
-        <v>0.04078718891485584</v>
+        <v>0.05398770892814801</v>
       </c>
       <c r="D88">
-        <v>0.04811459864984263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02420890839495501</v>
+      </c>
+      <c r="E88">
+        <v>-0.003067666258807805</v>
+      </c>
+      <c r="F88">
+        <v>0.02984928927232271</v>
+      </c>
+      <c r="G88">
+        <v>-0.008469447080515509</v>
+      </c>
+      <c r="H88">
+        <v>-0.02451440709302339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2410815432226387</v>
+        <v>-0.2862017943644495</v>
       </c>
       <c r="C89">
-        <v>-0.3924201696985959</v>
+        <v>-0.3448847813467253</v>
       </c>
       <c r="D89">
-        <v>-0.01468990162857785</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.003406662183873758</v>
+      </c>
+      <c r="E89">
+        <v>0.06011154164736104</v>
+      </c>
+      <c r="F89">
+        <v>-0.001077379478695244</v>
+      </c>
+      <c r="G89">
+        <v>-0.04952552130687175</v>
+      </c>
+      <c r="H89">
+        <v>-0.08200884133113832</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2124114577028176</v>
+        <v>-0.244425455196857</v>
       </c>
       <c r="C90">
-        <v>-0.2931888452190637</v>
+        <v>-0.2470834017962921</v>
       </c>
       <c r="D90">
-        <v>0.0005538706517612251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02225999415405212</v>
+      </c>
+      <c r="E90">
+        <v>0.04655907448727208</v>
+      </c>
+      <c r="F90">
+        <v>-0.0005637519386166157</v>
+      </c>
+      <c r="G90">
+        <v>0.04294706721714071</v>
+      </c>
+      <c r="H90">
+        <v>-0.04645429295971179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1749172754402522</v>
+        <v>-0.1525138581832532</v>
       </c>
       <c r="C91">
-        <v>0.147272002241613</v>
+        <v>0.1579336027832258</v>
       </c>
       <c r="D91">
-        <v>-0.0825488371149669</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08524133813905536</v>
+      </c>
+      <c r="E91">
+        <v>0.1025447874945213</v>
+      </c>
+      <c r="F91">
+        <v>0.07111624306846326</v>
+      </c>
+      <c r="G91">
+        <v>-0.04246007018949576</v>
+      </c>
+      <c r="H91">
+        <v>0.0921730914867824</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1863241119059195</v>
+        <v>-0.2298211024501094</v>
       </c>
       <c r="C92">
-        <v>-0.2754152652418606</v>
+        <v>-0.2673684557142703</v>
       </c>
       <c r="D92">
-        <v>0.02144289565420252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03254646660652645</v>
+      </c>
+      <c r="E92">
+        <v>0.08071935311233985</v>
+      </c>
+      <c r="F92">
+        <v>0.008967674826175276</v>
+      </c>
+      <c r="G92">
+        <v>0.02828129135335875</v>
+      </c>
+      <c r="H92">
+        <v>-0.01355971540414596</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2370985339140598</v>
+        <v>-0.2638186650319791</v>
       </c>
       <c r="C93">
-        <v>-0.3002756222062194</v>
+        <v>-0.2550399131620307</v>
       </c>
       <c r="D93">
-        <v>0.009033674830772094</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.00422518147464901</v>
+      </c>
+      <c r="E93">
+        <v>-0.0155184253564752</v>
+      </c>
+      <c r="F93">
+        <v>0.0240715667482126</v>
+      </c>
+      <c r="G93">
+        <v>-0.00960324234974267</v>
+      </c>
+      <c r="H93">
+        <v>-0.003131024198709589</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3746083289530813</v>
+        <v>-0.3311375841300253</v>
       </c>
       <c r="C94">
-        <v>0.2195503079146508</v>
+        <v>0.2638415760477619</v>
       </c>
       <c r="D94">
-        <v>-0.4423906174156971</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4424254013917154</v>
+      </c>
+      <c r="E94">
+        <v>0.04545417291264497</v>
+      </c>
+      <c r="F94">
+        <v>-0.04596955912474304</v>
+      </c>
+      <c r="G94">
+        <v>0.1035765906727047</v>
+      </c>
+      <c r="H94">
+        <v>-0.3657448922906974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06812097081966619</v>
+        <v>-0.06616349189314405</v>
       </c>
       <c r="C95">
-        <v>0.05923001493069354</v>
+        <v>0.06303135018019528</v>
       </c>
       <c r="D95">
-        <v>0.07258505939340913</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08251103465005645</v>
+      </c>
+      <c r="E95">
+        <v>0.2874821951787896</v>
+      </c>
+      <c r="F95">
+        <v>-0.7860810994649412</v>
+      </c>
+      <c r="G95">
+        <v>-0.4330681051547917</v>
+      </c>
+      <c r="H95">
+        <v>-0.134837924476274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1680826152318831</v>
+        <v>-0.1614951998498956</v>
       </c>
       <c r="C98">
-        <v>0.0411836536740085</v>
+        <v>0.07271803074705914</v>
       </c>
       <c r="D98">
-        <v>0.169404529373827</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1257671147430667</v>
+      </c>
+      <c r="E98">
+        <v>-0.3012506111822041</v>
+      </c>
+      <c r="F98">
+        <v>-0.03844222075196928</v>
+      </c>
+      <c r="G98">
+        <v>-0.03364161723348934</v>
+      </c>
+      <c r="H98">
+        <v>0.0991107093602295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0001217988389257004</v>
+        <v>-0.004095671332102111</v>
       </c>
       <c r="C101">
-        <v>0.02095587719791716</v>
+        <v>0.02064804114213223</v>
       </c>
       <c r="D101">
-        <v>0.08011416580964544</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09147094811486192</v>
+      </c>
+      <c r="E101">
+        <v>0.02259456113489717</v>
+      </c>
+      <c r="F101">
+        <v>0.03485576018101255</v>
+      </c>
+      <c r="G101">
+        <v>-0.01237953436662127</v>
+      </c>
+      <c r="H101">
+        <v>-0.09527919776328184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.121666485274025</v>
+        <v>-0.1024125840724381</v>
       </c>
       <c r="C102">
-        <v>0.117504904601205</v>
+        <v>0.1202268015512896</v>
       </c>
       <c r="D102">
-        <v>-0.0537830823899315</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06436316606541471</v>
+      </c>
+      <c r="E102">
+        <v>0.03138942504527074</v>
+      </c>
+      <c r="F102">
+        <v>-0.004868865576470557</v>
+      </c>
+      <c r="G102">
+        <v>0.01988546344158565</v>
+      </c>
+      <c r="H102">
+        <v>0.02959362465162669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
